--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_1.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_0</t>
+          <t>model_8_1_21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.559786611965436</v>
+        <v>0.2967959353427138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8879462061323996</v>
+        <v>-5.092416589398046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5608377392831529</v>
+        <v>-2.262551119888867</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8335584612721066</v>
+        <v>-3.236308560062831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4871864914894104</v>
+        <v>0.7782397270202637</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1253287196159363</v>
+        <v>2.761625051498413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2046104818582535</v>
+        <v>2.323813199996948</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1626378148794174</v>
+        <v>2.555596113204956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_1</t>
+          <t>model_8_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6600397668814691</v>
+        <v>0.296839247183847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7389896458021603</v>
+        <v>-5.076744665424188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4508392716730009</v>
+        <v>-2.273539485578954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7186132446894521</v>
+        <v>-3.236178887580762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3762358129024506</v>
+        <v>0.7781917452812195</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2919320166110992</v>
+        <v>2.754521131515503</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2558599710464478</v>
+        <v>2.331639766693115</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2749561369419098</v>
+        <v>2.55551815032959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_2</t>
+          <t>model_8_1_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7168017624836215</v>
+        <v>0.3292169385419875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7921491381644228</v>
+        <v>-5.110838622375698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2412717323915936</v>
+        <v>-1.895658530372866</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7038027925798804</v>
+        <v>-3.039783100378081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.313416987657547</v>
+        <v>0.7423592209815979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2324747443199158</v>
+        <v>2.769975185394287</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3534997701644897</v>
+        <v>2.062487125396729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2894281148910522</v>
+        <v>2.437040328979492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_3</t>
+          <t>model_8_1_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7221775274094859</v>
+        <v>0.3324699184755932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7981243882284271</v>
+        <v>-4.676507709943019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1969926302621979</v>
+        <v>-2.15443543580422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6974894090979304</v>
+        <v>-3.010787281620557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3074676096439362</v>
+        <v>0.7387591600418091</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2257916331291199</v>
+        <v>2.573097944259644</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3741299211978912</v>
+        <v>2.246805667877197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.29559725522995</v>
+        <v>2.419548511505127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_4</t>
+          <t>model_8_1_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7241686146338244</v>
+        <v>0.3327148842938553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7923936027500535</v>
+        <v>-4.674472222745455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1749535319485754</v>
+        <v>-2.149080756355334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6890711721910677</v>
+        <v>-3.007001415175568</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3052640557289124</v>
+        <v>0.7384880185127258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2322013378143311</v>
+        <v>2.572175025939941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3843981623649597</v>
+        <v>2.24299168586731</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3038230836391449</v>
+        <v>2.417264699935913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_5</t>
+          <t>model_8_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7273422798897765</v>
+        <v>0.3365520873084841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7953728285197583</v>
+        <v>-4.605686881728738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1595491859385858</v>
+        <v>-2.163475883280205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.687420363755969</v>
+        <v>-2.987637870432666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3017517626285553</v>
+        <v>0.7342414259910583</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2288691699504852</v>
+        <v>2.540995597839355</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3915752172470093</v>
+        <v>2.253244876861572</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3054361343383789</v>
+        <v>2.405583143234253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_6</t>
+          <t>model_8_1_23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7363847893181736</v>
+        <v>0.3398899891663768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8165062433932073</v>
+        <v>-5.043193315488581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1654442803969743</v>
+        <v>-1.829759389785403</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7015490864184515</v>
+        <v>-2.976250263278335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2917443811893463</v>
+        <v>0.7305472493171692</v>
       </c>
       <c r="G8" t="n">
-        <v>0.205232098698616</v>
+        <v>2.739312410354614</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3888286352157593</v>
+        <v>2.015548944473267</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2916303277015686</v>
+        <v>2.3987135887146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_7</t>
+          <t>model_8_1_24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7439147334490855</v>
+        <v>0.3762166622488349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8529576678832607</v>
+        <v>-5.013204840902612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08549526054343215</v>
+        <v>-1.456530259647425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7056989357425669</v>
+        <v>-2.756954933486413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2834109365940094</v>
+        <v>0.6903443336486816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1644622981548309</v>
+        <v>2.725718975067139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4260777533054352</v>
+        <v>1.749709606170654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2875753045082092</v>
+        <v>2.266421318054199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_8</t>
+          <t>model_8_1_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7745402628484819</v>
+        <v>0.3938622197349974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.877922813960286</v>
+        <v>-5.238591322032885</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01898797244657136</v>
+        <v>-1.097502855301441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6973833167798882</v>
+        <v>-2.647128048319654</v>
       </c>
       <c r="F10" t="n">
-        <v>0.249517485499382</v>
+        <v>0.6708158850669861</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1365395486354828</v>
+        <v>2.827884197235107</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4747576117515564</v>
+        <v>1.493985652923584</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2957009077072144</v>
+        <v>2.200167417526245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_9</t>
+          <t>model_8_1_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8064242863297837</v>
+        <v>0.4112606094597392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8353687084096459</v>
+        <v>-4.237789433697467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08808114442964987</v>
+        <v>-1.55942423687763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6956202957945974</v>
+        <v>-2.50566490660805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2142312675714493</v>
+        <v>0.65156090259552</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1841350197792053</v>
+        <v>2.374232053756714</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4248729646205902</v>
+        <v>1.82299792766571</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2974236011505127</v>
+        <v>2.114828109741211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_24</t>
+          <t>model_8_1_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8282077662094157</v>
+        <v>0.4877052816509916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9437234329708309</v>
+        <v>-3.528782244898188</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.065512833479222</v>
+        <v>-1.060722176129559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5024376582407371</v>
+        <v>-1.94653326459686</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1901233941316605</v>
+        <v>0.5669593214988708</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06294360756874084</v>
+        <v>2.052846670150757</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9623450040817261</v>
+        <v>1.467787981033325</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4861914217472076</v>
+        <v>1.777526259422302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_21</t>
+          <t>model_8_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8309898361319089</v>
+        <v>0.5123168459875944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9428716464120378</v>
+        <v>-2.959773867237705</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.004680465359676</v>
+        <v>-1.195922964855618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5155711240708361</v>
+        <v>-1.795302246636174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1870444566011429</v>
+        <v>0.5397215485572815</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0638962984085083</v>
+        <v>1.794921636581421</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9340025186538696</v>
+        <v>1.564087271690369</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4733580946922302</v>
+        <v>1.686294555664062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_22</t>
+          <t>model_8_1_0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8310389265141532</v>
+        <v>0.5238340768688178</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9430254139501221</v>
+        <v>0.03218976656664285</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.007416605575722</v>
+        <v>0.7996597071090313</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5150504125206984</v>
+        <v>0.5036922289990142</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1869901418685913</v>
+        <v>0.5269753336906433</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06372430920600891</v>
+        <v>0.4386976361274719</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9352773427963257</v>
+        <v>0.1426961272954941</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4738669097423553</v>
+        <v>0.2994027137756348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_20</t>
+          <t>model_8_1_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8313785685987812</v>
+        <v>0.5322852003042579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9421808247468634</v>
+        <v>0.1439067621487059</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9909709767118255</v>
+        <v>0.575950183063197</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5182286829123628</v>
+        <v>0.423836488349761</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1866142451763153</v>
+        <v>0.5176224708557129</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06466896086931229</v>
+        <v>0.3880575597286224</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9276151061058044</v>
+        <v>0.3020374178886414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.470761239528656</v>
+        <v>0.3475765287876129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_18</t>
+          <t>model_8_1_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8325034658187508</v>
+        <v>0.5562572988000918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9354047573212189</v>
+        <v>0.1760896164881085</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9313268186192944</v>
+        <v>0.5602927074744977</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5275048531380002</v>
+        <v>0.427940826398951</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1853692978620529</v>
+        <v>0.4910923838615417</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07224778831005096</v>
+        <v>0.3734694719314575</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8998262882232666</v>
+        <v>0.3131897449493408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4616970717906952</v>
+        <v>0.3451005220413208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_23</t>
+          <t>model_8_1_3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8341917396670616</v>
+        <v>0.5947990555705347</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9442084392861402</v>
+        <v>0.1632972725320558</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9599883158276876</v>
+        <v>0.5168765438938188</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5264092859261296</v>
+        <v>0.3987252622558896</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1835008859634399</v>
+        <v>0.4484380185604095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06240114197134972</v>
+        <v>0.3792680501937866</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9131799340248108</v>
+        <v>0.3441137373447418</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4627675712108612</v>
+        <v>0.3627251088619232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_10</t>
+          <t>model_8_1_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8353236604520023</v>
+        <v>0.6007792680896009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.87230321127189</v>
+        <v>-1.938149122355203</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4007104598804367</v>
+        <v>-0.8619915416496553</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6083257717951296</v>
+        <v>-1.203359331668816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1822481900453568</v>
+        <v>0.4418197274208069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1428249180316925</v>
+        <v>1.331830501556396</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6526063084602356</v>
+        <v>1.326238393783569</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3827232122421265</v>
+        <v>1.329198956489563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_19</t>
+          <t>model_8_1_11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.836217456747515</v>
+        <v>0.6262386150756667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9429124855022707</v>
+        <v>-1.761868791054106</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9049977370547162</v>
+        <v>-0.6828014845847421</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5379625748830015</v>
+        <v>-1.033675053999164</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1812590211629868</v>
+        <v>0.4136436879634857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06385061889886856</v>
+        <v>1.251924514770508</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8875592350959778</v>
+        <v>1.198606848716736</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4514783620834351</v>
+        <v>1.226835131645203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_12</t>
+          <t>model_8_1_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8373365529775542</v>
+        <v>0.6836157563672909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8891801552422323</v>
+        <v>0.2606719134860825</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6197671626384655</v>
+        <v>-0.428755104622103</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5694028006442278</v>
+        <v>-0.08795120517621235</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1800204962491989</v>
+        <v>0.3501441180706024</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1239485740661621</v>
+        <v>0.3351292014122009</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7546671628952026</v>
+        <v>1.017657518386841</v>
       </c>
       <c r="I20" t="n">
-        <v>0.420756608247757</v>
+        <v>0.6563176512718201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_17</t>
+          <t>model_8_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8402740895662467</v>
+        <v>0.7306517394767716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.929626813182001</v>
+        <v>0.06406609034753108</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7742458242490058</v>
+        <v>-0.3496078834755589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5592493948109272</v>
+        <v>-0.1221868161700823</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1767695099115372</v>
+        <v>0.2980891764163971</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07871023565530777</v>
+        <v>0.4242484569549561</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8266404867172241</v>
+        <v>0.9612834453582764</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4306780099868774</v>
+        <v>0.6769706606864929</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_16</t>
+          <t>model_8_1_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8429936337756998</v>
+        <v>0.7492582075702461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9231777225607065</v>
+        <v>0.06788172426717554</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7014401852338628</v>
+        <v>-0.2295331349895091</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5716780446353684</v>
+        <v>-0.05395136376800269</v>
       </c>
       <c r="F22" t="n">
-        <v>0.173759788274765</v>
+        <v>0.277497261762619</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08592334389686584</v>
+        <v>0.4225188791751862</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7927195429801941</v>
+        <v>0.8757579922676086</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4185333847999573</v>
+        <v>0.6358069181442261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_11</t>
+          <t>model_8_1_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8432432427652926</v>
+        <v>0.7494843026606581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.865973937343352</v>
+        <v>0.08176120355294425</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.330697844399956</v>
+        <v>-0.1799332347207638</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6202006616704276</v>
+        <v>-0.0208713164356471</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1734835356473923</v>
+        <v>0.2772470414638519</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1499039977788925</v>
+        <v>0.4162274599075317</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6199866533279419</v>
+        <v>0.8404295444488525</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3711196780204773</v>
+        <v>0.6158509850502014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_14</t>
+          <t>model_8_1_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8467420193453489</v>
+        <v>0.7608485686723295</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9138761476786217</v>
+        <v>-0.2332293720618914</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5973926345631579</v>
+        <v>-0.1652522724791425</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5893873675762438</v>
+        <v>-0.138019816863439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1696114242076874</v>
+        <v>0.2646701633930206</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09632685780525208</v>
+        <v>0.5590091943740845</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7442426681518555</v>
+        <v>0.8299726843833923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4012287855148315</v>
+        <v>0.6865220665931702</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_15</t>
+          <t>model_8_1_9</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8472447242379995</v>
+        <v>0.7794848471683788</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9169894478071265</v>
+        <v>-0.0793253862502914</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6021916806512164</v>
+        <v>-0.05429924085652704</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5901975159707685</v>
+        <v>-0.01514890376824951</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1690550893545151</v>
+        <v>0.2440452873706818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09284473955631256</v>
+        <v>0.4892462193965912</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7464786171913147</v>
+        <v>0.7509443759918213</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4004371464252472</v>
+        <v>0.6123989224433899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_13</t>
+          <t>model_8_1_8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8503906054705668</v>
+        <v>0.7870004994014785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9057777422632425</v>
+        <v>0.02008300777991379</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4917552061905515</v>
+        <v>0.002122587302799128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6081844750948597</v>
+        <v>0.05574581868173767</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1655735075473785</v>
+        <v>0.2357276827096939</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1053846776485443</v>
+        <v>0.4441854655742645</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6950250864028931</v>
+        <v>0.7107568979263306</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3828612565994263</v>
+        <v>0.5696309804916382</v>
       </c>
     </row>
   </sheetData>
